--- a/bae/test.xlsx
+++ b/bae/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>歌单名称</t>
   </si>
@@ -25,7 +25,7 @@
     <t>结束日期</t>
   </si>
   <si>
-    <t>2014-06-09</t>
+    <t>2014-06-10</t>
   </si>
   <si>
     <t>时段名称</t>
@@ -73,34 +73,34 @@
     <t>10:03:52</t>
   </si>
   <si>
+    <t>Glory Of Loneliness</t>
+  </si>
+  <si>
+    <t>5:44</t>
+  </si>
+  <si>
+    <t>10:09:36</t>
+  </si>
+  <si>
+    <t>4:49</t>
+  </si>
+  <si>
+    <t>10:14:25</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>10:20:09</t>
+  </si>
+  <si>
     <t>晴</t>
   </si>
   <si>
     <t>4:11</t>
   </si>
   <si>
-    <t>10:08:03</t>
-  </si>
-  <si>
-    <t>4:49</t>
-  </si>
-  <si>
-    <t>10:12:52</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>Glory Of Loneliness</t>
-  </si>
-  <si>
-    <t>5:44</t>
-  </si>
-  <si>
-    <t>10:18:36</t>
-  </si>
-  <si>
-    <t>10:22:48</t>
+    <t>10:24:21</t>
   </si>
   <si>
     <t>Fire Alarm (Vocal)</t>
@@ -109,34 +109,58 @@
     <t>4:12</t>
   </si>
   <si>
-    <t>10:27:00</t>
+    <t>10:28:33</t>
+  </si>
+  <si>
+    <t>10:32:44</t>
+  </si>
+  <si>
+    <t>3:58</t>
+  </si>
+  <si>
+    <t>10:36:43</t>
+  </si>
+  <si>
+    <t>10:42:27</t>
+  </si>
+  <si>
+    <t>10:46:26</t>
+  </si>
+  <si>
+    <t>10:52:10</t>
+  </si>
+  <si>
+    <t>10:56:09</t>
+  </si>
+  <si>
+    <t>11:00:20</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>10:27:01</t>
-  </si>
-  <si>
-    <t>3:58</t>
-  </si>
-  <si>
-    <t>10:31:00</t>
-  </si>
-  <si>
-    <t>10:36:44</t>
-  </si>
-  <si>
-    <t>10:40:43</t>
-  </si>
-  <si>
-    <t>10:46:27</t>
-  </si>
-  <si>
-    <t>10:50:25</t>
-  </si>
-  <si>
-    <t>10:54:37</t>
+    <t>新增时段</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>From Sarah With Love (Radio Version)</t>
+  </si>
+  <si>
+    <t>08:04:12</t>
+  </si>
+  <si>
+    <t>Because Of You</t>
+  </si>
+  <si>
+    <t>0:43</t>
   </si>
 </sst>
 </file>
@@ -476,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,13 +641,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v/>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -631,16 +655,16 @@
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v/>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
-        <v/>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -667,14 +691,14 @@
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
-        <v>22</v>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v/>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -682,7 +706,7 @@
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -691,7 +715,7 @@
         <v/>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>0</v>
@@ -699,16 +723,16 @@
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v/>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -716,7 +740,7 @@
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -725,7 +749,7 @@
         <v/>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -733,16 +757,16 @@
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v/>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -750,7 +774,7 @@
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -759,7 +783,7 @@
         <v/>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>0</v>
@@ -767,16 +791,16 @@
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v/>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>0</v>
@@ -784,18 +808,91 @@
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v/>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1">
-        <v/>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1">
+        <v/>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1">
+        <v/>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="b">
         <v>0</v>
       </c>
     </row>
